--- a/Benchmarks/Water Chemistry/Total Phosphorus/TP and TN matrix predictor decisions.xlsx
+++ b/Benchmarks/Water Chemistry/Total Phosphorus/TP and TN matrix predictor decisions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stateoforegon-my.sharepoint.com/personal/sabine_berzins_deq_oregon_gov/Documents/Documents/BioMonORDEQ/Benchmarks/Water Chemistry/Total Phosphorus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{CAD9B131-3F1C-4225-9FD0-9F84E8A6FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88A26987-017E-486D-A048-A3B0C8DDC6EA}"/>
+  <xr:revisionPtr revIDLastSave="159" documentId="8_{CAD9B131-3F1C-4225-9FD0-9F84E8A6FEB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F472655A-D4E9-464C-832C-D2708EB56CFA}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="1040" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4830" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4831" uniqueCount="767">
   <si>
     <t>rowname</t>
   </si>
@@ -2416,6 +2416,9 @@
   </si>
   <si>
     <t>AGKFFACTWS, AL2O3WS, BANKFULLDEPTH, BANKFULLWIDTH, BFIWS, CAOWS, CBNFWS, CLAYWS, CONNWS, DAMDENSWS, DAMNIDSTORWS, DAMNRMSTORWS, ELEVWS, FE2O3WS, FERTWS, HABTWS, HUDEN2010WS, ICI, INORGNWETDEP2008WS, IWI, K2OWS, MANUREWS, MAST2008, MGOWS, MWST2008, NA2OWS, NABD_DENSWS, NABD_NIDSTORWS, NABD_NRMSTORWS, NANIWS, NH42008WS, NO32008WS, NSURPWS, P2O5WS, PCT_EROD, PCTAGSLPHIGH2001WS, PCTAGSLPMID2001WS, PCTBURNAREA2002WS, PCTDECID2001WS, PCTFIRE2002WS, PCTHAY2001WS, PCTHIGHSEV2002WS, PCTIMP2001WS, PCTIMPSLPHIGH2001WS, PCTIMPSLPMID2001WS, PCTLOWSEV2002WS, PCTMODSEV2002WS, PCTMXFST2001WS, PCTNONCARBRESIDWS, PCTSILICICWS, PCTUNDSEV2002WS, PCTURBLO2001WS, PCTURBMD2001WS, PERMWS, POPDEN2010WS, PRECIP_MINUS_EVTWS, PRECIP2008WS, PRECIP8110WS, PRECIP9120WS, RUNOFFWS, SANDWS, SEDWS, SIO2WS, SN2008WS, SW_FLUXWS, TEMPWS, THALWEGDEPTH, TMAX8110WS, TMAX9120WS, TMEAN2008WS, TMEAN8110WS, TMEAN9120WS, TMIN8110WS, TMIN9120WS, WATERINPUTWS, WDRW_LDWS, WETTEDWIDTH, WWTPALLDENSWS, WWTPMINORDENSWS</t>
+  </si>
+  <si>
+    <t>hi Shannon</t>
   </si>
 </sst>
 </file>
@@ -3017,11 +3020,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S333"/>
+  <dimension ref="A1:S340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G337" sqref="G337"/>
+      <pane ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A340" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25678,6 +25681,11 @@
       </c>
       <c r="S333" s="20">
         <v>0.99999698511450552</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" s="41" t="s">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -31831,12 +31839,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32017,15 +32022,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A282B94-B822-4F45-BD80-10F6613E2004}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0BD7057-42ED-4ADF-B933-788039119473}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6076d197-b432-4a89-8b9d-b97676e775aa"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3f71e46e-dbdb-4936-a808-49fb891fc3e2"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32050,18 +32067,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0BD7057-42ED-4ADF-B933-788039119473}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A282B94-B822-4F45-BD80-10F6613E2004}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6076d197-b432-4a89-8b9d-b97676e775aa"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="3f71e46e-dbdb-4936-a808-49fb891fc3e2"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
